--- a/data/income_statement/2digits/size/46_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/46_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>46-Wholesale trade, except of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>46-Wholesale trade, except of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>33966352.97068</v>
+        <v>35886483.04886</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>35185383.00208</v>
+        <v>37236590.65415</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>42337864.76874</v>
+        <v>44512079.57913</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>46023007.57785001</v>
+        <v>48503831.18195</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>37428999.71348</v>
+        <v>40394829.29019</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>38241697.91653</v>
+        <v>41967550.99222</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>41039626.91587</v>
+        <v>44995743.93119</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>38709448.88378999</v>
+        <v>42838924.24626999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>40799525.67744999</v>
+        <v>45030430.64314</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>131856907.93885</v>
+        <v>141630001.26832</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>132359779.2627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>147437404.39002</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>191792287.259</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>29296875.81911</v>
+        <v>30981596.67464</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>30065808.89498</v>
+        <v>31845556.71394</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>33247095.85312</v>
+        <v>35147472.38364</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>38868630.25606</v>
+        <v>41018032.71793</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>31324759.13242</v>
+        <v>33914599.11122</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>32952030.78895</v>
+        <v>35931559.00177</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>35113927.29755</v>
+        <v>38535630.4015</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>32327942.77049</v>
+        <v>35913212.30792</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>32681844.15827001</v>
+        <v>36368933.63433</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>106709354.6255</v>
+        <v>114946706.7901</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>106374189.99592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>117975509.76714</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>155004466.519</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4308892.43304</v>
+        <v>4482240.08458</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4758674.10057</v>
+        <v>4954301.00656</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>8669411.419060001</v>
+        <v>8867635.961100001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6794274.879319999</v>
+        <v>7035226.404509999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>5777080.77408</v>
+        <v>6051427.72313</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4975311.23829</v>
+        <v>5599268.18028</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5583941.12448</v>
+        <v>5978563.50652</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6019092.25099</v>
+        <v>6393491.066819999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>7756049.03631</v>
+        <v>8120746.84487</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>24026334.28735</v>
+        <v>25297446.89052</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>24818441.03278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>27948502.24315</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>35231607.462</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>360584.71853</v>
+        <v>422646.28964</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>360900.00653</v>
+        <v>436732.93365</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>421357.49656</v>
+        <v>496971.23439</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>360102.44247</v>
+        <v>450572.05951</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>327159.8069799999</v>
+        <v>428802.45584</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>314355.88929</v>
+        <v>436723.81017</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>341758.49384</v>
+        <v>481550.02317</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>362413.8623099999</v>
+        <v>532220.87153</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>361632.48287</v>
+        <v>540750.1639400001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1121219.026</v>
+        <v>1385847.5877</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1167148.234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1513392.37973</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1556213.278</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>332371.1728100001</v>
+        <v>377321.93914</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>329834.0249500001</v>
+        <v>373955.8272299999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>332946.20462</v>
+        <v>381727.2391599999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>310290.49392</v>
+        <v>357913.01513</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>284907.16237</v>
+        <v>406337.28454</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>289803.391</v>
+        <v>355173.32078</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>284561.26787</v>
+        <v>391354.56036</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>322167.16863</v>
+        <v>395961.42763</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>309589.32488</v>
+        <v>434245.79677</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1339419.41337</v>
+        <v>1481464.83682</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2407410.98578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2623725.1887</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>4320841.832</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>253189.6186</v>
+        <v>285238.88075</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>230074.63951</v>
+        <v>258483.59847</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>245743.49856</v>
+        <v>285033.07427</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>231923.93105</v>
+        <v>266043.78469</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>209353.01231</v>
+        <v>246516.90632</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>214283.00569</v>
+        <v>264039.15617</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>212306.62955</v>
+        <v>304300.92882</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>238872.54569</v>
+        <v>296108.22693</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>241251.98485</v>
+        <v>340861.81578</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1027309.31061</v>
+        <v>1136749.97836</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2166632.39624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2351290.5382</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>4043927.898</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>62427.36399999999</v>
+        <v>71263.5969</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>86840.66794</v>
+        <v>96693.59362999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>69579.60312999999</v>
+        <v>76451.5497</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>62141.19239</v>
+        <v>70484.23337</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>62403.79348</v>
+        <v>143553.27732</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>58715.70745</v>
+        <v>71145.38503</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>55728.13105</v>
+        <v>66521.58929</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>61598.71143000001</v>
+        <v>74332.39479000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>36784.00324</v>
+        <v>58743.38847</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>208881.58017</v>
+        <v>232060.12406</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>168768.00496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>190361.47596</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>182424.41</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>16754.19021</v>
+        <v>20819.46149</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>12918.7175</v>
+        <v>18778.63513</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>17623.10293</v>
+        <v>20242.61519</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>16225.37048</v>
+        <v>21384.99707</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>13150.35658</v>
+        <v>16267.1009</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>16804.67786</v>
+        <v>19988.77958</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>16526.50727</v>
+        <v>20532.04225</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>21695.91151</v>
+        <v>25520.80591</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>31553.33679</v>
+        <v>34640.59252000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>103228.52259</v>
+        <v>112654.7344</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>72010.58458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>82073.17453999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>94489.524</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>33633981.79787</v>
+        <v>35509161.10972</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>34855548.97713</v>
+        <v>36862634.82692</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>42004918.56411999</v>
+        <v>44130352.33997</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>45712717.08393</v>
+        <v>48145918.16682</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>37144092.55111</v>
+        <v>39988492.00564999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>37951894.52553</v>
+        <v>41612377.67144001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>40755065.648</v>
+        <v>44604389.37083</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>38387281.71516</v>
+        <v>42442962.81864</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>40489936.35257</v>
+        <v>44596184.84637</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>130517488.52548</v>
+        <v>140148536.4315</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>129952368.27692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>144813679.20132</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>187471445.427</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>29499570.38402</v>
+        <v>30998637.74204</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>30625620.99358</v>
+        <v>32206730.46135</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>37457042.79057</v>
+        <v>39151255.41293</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>41351395.52457001</v>
+        <v>43236867.74964999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>32920554.86899</v>
+        <v>35135036.8703</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>33579011.2214</v>
+        <v>36505133.7137</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>36467376.98063</v>
+        <v>39435306.93144</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>34023652.9721</v>
+        <v>37097612.84939999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>36065889.69611999</v>
+        <v>39124839.89852001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>117116512.12168</v>
+        <v>125065429.36219</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>115841303.83376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>128194344.39338</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>170258851.498</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2011239.43199</v>
+        <v>2229398.74239</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1787018.27472</v>
+        <v>1998990.22481</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1927678.27255</v>
+        <v>2161314.30705</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1789202.50013</v>
+        <v>2037875.04508</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1698924.45026</v>
+        <v>2000541.5268</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1852717.18916</v>
+        <v>2278280.12197</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1670421.58075</v>
+        <v>2024932.26112</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1482799.49198</v>
+        <v>1899250.05509</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1619237.6956</v>
+        <v>1996497.10561</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6403477.14425</v>
+        <v>7111737.282459999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5794827.888520001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6774192.63721</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7970952.295</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>26450905.69138</v>
+        <v>27651874.3459</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>27777636.60371</v>
+        <v>29043188.86722</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>34146561.85981</v>
+        <v>35492305.85253</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>38279929.04079</v>
+        <v>39799404.10011</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>29997847.67193</v>
+        <v>31781432.95272</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>30572665.81707</v>
+        <v>32933067.21141</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>33683597.20665</v>
+        <v>36094570.57037999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>31324025.30529</v>
+        <v>33770584.29305</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>32537944.02147</v>
+        <v>34975467.95069</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>106712138.37754</v>
+        <v>113598850.34684</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>106744302.17938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>117482245.9179</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>158119418.381</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>974482.3485900001</v>
+        <v>1046480.11941</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1016733.01138</v>
+        <v>1109693.69124</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1251538.22757</v>
+        <v>1357159.44386</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1220213.10129</v>
+        <v>1329813.98292</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1170405.09581</v>
+        <v>1287912.31737</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1020523.28316</v>
+        <v>1145655.83727</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1014280.94416</v>
+        <v>1193002.16661</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1096363.95059</v>
+        <v>1274537.62219</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1098194.5238</v>
+        <v>1309113.7055</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2876123.39839</v>
+        <v>3181474.73282</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2989169.52157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3546285.71257</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3613325.435</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>62942.91206</v>
+        <v>70884.53434</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>44233.10376999999</v>
+        <v>54857.67808</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>131264.43064</v>
+        <v>140475.80949</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>62050.88236</v>
+        <v>69774.62153999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>53377.65099</v>
+        <v>65150.07341</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>133104.93201</v>
+        <v>148130.54305</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>99077.24907000001</v>
+        <v>122801.93333</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>120464.22424</v>
+        <v>153240.87907</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>810513.45525</v>
+        <v>843761.1367200001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1124773.2015</v>
+        <v>1173367.00007</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>313004.24429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>391620.1257</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>555155.387</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>4134411.413850001</v>
+        <v>4510523.36768</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4229927.98355</v>
+        <v>4655904.365569999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4547875.773549999</v>
+        <v>4979096.927040001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4361321.559359999</v>
+        <v>4909050.41717</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4223537.68212</v>
+        <v>4853455.13535</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4372883.30413</v>
+        <v>5107243.95774</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4287688.66737</v>
+        <v>5169082.43939</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4363628.743059999</v>
+        <v>5345349.96924</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4424046.65645</v>
+        <v>5471344.94785</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>13400976.4038</v>
+        <v>15083107.06931</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>14111064.44316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16619334.80794</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>17212593.929</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>3582750.3776</v>
+        <v>4094003.25466</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3687497.91198</v>
+        <v>4280570.940350001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3977452.60741</v>
+        <v>4631405.421770001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3975549.14825</v>
+        <v>4704782.252350001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3920747.98431</v>
+        <v>4784923.341109999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4031343.44026</v>
+        <v>5025594.380040001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3975754.58715</v>
+        <v>5315722.31349</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4161804.13051</v>
+        <v>5547215.84186</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4177024.40915</v>
+        <v>5653416.50384</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10971799.34894</v>
+        <v>13034294.77169</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>11968765.60224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14958385.71057</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>15075392.831</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>10973.05199</v>
+        <v>12467.64469</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>10761.89546</v>
+        <v>12080.44291</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>12091.85675</v>
+        <v>14030.36855</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>10844.1305</v>
+        <v>12809.54068</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>12007.20382</v>
+        <v>15613.88342</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>10479.73225</v>
+        <v>12520.84941</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>12266.91904</v>
+        <v>13681.97677</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>14703.13676</v>
+        <v>17339.8827</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>8656.70124</v>
+        <v>13840.9328</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>20458.15742</v>
+        <v>41258.33422</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>17119.92277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>23582.17532</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>28209.71</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>892216.27567</v>
+        <v>996036.06663</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>920779.71269</v>
+        <v>1025159.54552</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1002958.25855</v>
+        <v>1131029.40467</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1014650.96039</v>
+        <v>1148814.57835</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>990518.5015799999</v>
+        <v>1158991.38089</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>993871.76307</v>
+        <v>1182881.12825</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>989358.7377499999</v>
+        <v>1228659.30139</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1032271.56715</v>
+        <v>1277279.68701</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1059203.7937</v>
+        <v>1337763.33331</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3369025.75069</v>
+        <v>3803783.093770001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3601648.7016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4247367.00783</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4319223.859</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>2679561.049940001</v>
+        <v>3085499.54334</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2755956.30383</v>
+        <v>3243330.95192</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2962402.49211</v>
+        <v>3486345.64855</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2950054.05736</v>
+        <v>3543158.13332</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2918222.27891</v>
+        <v>3610318.0768</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3026991.94494</v>
+        <v>3830192.40238</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2974128.93036</v>
+        <v>4073381.03533</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3114829.4266</v>
+        <v>4252596.27215</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3109163.91421</v>
+        <v>4301812.237729999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>7582315.44083</v>
+        <v>9189253.343700001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>8349996.977870001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>10687436.52742</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>10727959.262</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>551661.03625</v>
+        <v>416520.11302</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>542430.07157</v>
+        <v>375333.42522</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>570423.16614</v>
+        <v>347691.50527</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>385772.41111</v>
+        <v>204268.16482</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>302789.69781</v>
+        <v>68531.79423999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>341539.86387</v>
+        <v>81649.57770000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>311934.08022</v>
+        <v>-146639.8741</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>201824.61255</v>
+        <v>-201865.87262</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>247022.2473</v>
+        <v>-182071.55599</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2429177.05486</v>
+        <v>2048812.29762</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2142298.84092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1660949.09737</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2137201.098</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>241700.57921</v>
+        <v>1116406.86117</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>218236.77915</v>
+        <v>1062777.21941</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>283170.63899</v>
+        <v>1372033.10001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>210088.99683</v>
+        <v>1823152.60719</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>262091.01224</v>
+        <v>2168198.30223</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>221917.86773</v>
+        <v>1508903.22765</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>316419.66174</v>
+        <v>2570398.43403</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>301679.31423</v>
+        <v>2495597.83768</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>415265.15498</v>
+        <v>4159096.83841</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2131553.18116</v>
+        <v>10085875.34038</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1204006.87763</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5605671.1746</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6810842.429</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1478.56269</v>
+        <v>342930.64384</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1992.74396</v>
+        <v>326091.14231</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2262.77798</v>
+        <v>408924.78503</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2483.70149</v>
+        <v>423655.1587</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2769.91384</v>
+        <v>478776.43439</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1087.06603</v>
+        <v>373584.9544100001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1527.13172</v>
+        <v>467203.1835799999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2433.00889</v>
+        <v>584817.0126799999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1761.89461</v>
+        <v>1721735.40551</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4551.0527</v>
+        <v>935849.63997</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>5439.610070000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>949416.8713899999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>594228.535</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>676.3194299999999</v>
+        <v>10301.6184</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>104.35264</v>
+        <v>30380.84862</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>744.12264</v>
+        <v>73656.16364999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>630.5462000000001</v>
+        <v>130479.67464</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>118.87997</v>
+        <v>161944.06033</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>882.36924</v>
+        <v>116564.36502</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>445.60587</v>
+        <v>75144.48052</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>396.52128</v>
+        <v>128316.5999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>352.4284</v>
+        <v>120684.529</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>306.36492</v>
+        <v>1070705.32571</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2356.45468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>177184.80882</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>63281.227</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>18037.73842</v>
+        <v>70031.39834</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>14520.36853</v>
+        <v>66484.693</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>15885.83492</v>
+        <v>84109.59093999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>18075.00972</v>
+        <v>134586.89614</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>15242.18513</v>
+        <v>117889.88803</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>17203.77096</v>
+        <v>157807.34179</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17063.8357</v>
+        <v>196127.07908</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>16714.98455</v>
+        <v>187272.22406</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>19150.94958</v>
+        <v>239447.31361</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>96123.07642</v>
+        <v>568434.6198700001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>104032.78937</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>567896.5906900001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>451539.003</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>21367.14152</v>
+        <v>28010.86055</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>21223.67899</v>
+        <v>27041.9117</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>25350.77825</v>
+        <v>31429.79968</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>21754.16127</v>
+        <v>27202.71259</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>20073.48373</v>
+        <v>29155.02758</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>19295.98084</v>
+        <v>27472.54969</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>19119.50115</v>
+        <v>34609.57547</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>19840.43252</v>
+        <v>29360.22129</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>18379.10585</v>
+        <v>35821.20186</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>42930.13372</v>
+        <v>72355.68749000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>51391.42694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>82425.93394</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>81306.319</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>7364.32668</v>
+        <v>136368.13502</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>6992.426020000001</v>
+        <v>130644.40309</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6605.050969999999</v>
+        <v>163543.67063</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6746.490049999999</v>
+        <v>128695.33385</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4954.9262</v>
+        <v>126731.42075</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>5536.29303</v>
+        <v>13192.0626</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3281.5777</v>
+        <v>130730.09637</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5885.520159999999</v>
+        <v>17951.05875</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4481.76535</v>
+        <v>30435.49966</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>12537.50384</v>
+        <v>533172.67891</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>15668.5228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>333096.84835</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>416522.259</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>3227.30205</v>
+        <v>12802.9649</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1823.86364</v>
+        <v>8023.55539</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2488.02835</v>
+        <v>33712.64107</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>4221.417060000001</v>
+        <v>272863.75288</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2147.78209</v>
+        <v>11819.0641</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2187.84373</v>
+        <v>37126.84979</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2557.60781</v>
+        <v>173642.4817</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2440.38633</v>
+        <v>37029.00088</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1873.37652</v>
+        <v>75883.79781</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>11916.25815</v>
+        <v>158512.95463</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>10951.91663</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>171950.84129</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>126939.886</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>128001.88938</v>
+        <v>378038.82504</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>105116.258</v>
+        <v>334969.4432799999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>159870.44813</v>
+        <v>416176.81953</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>91571.58310999998</v>
+        <v>310176.3549</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>150084.88128</v>
+        <v>571790.9825500001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>125769.47578</v>
+        <v>582922.11026</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>216473.55703</v>
+        <v>1225295.46551</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>187801.63519</v>
+        <v>1183828.43788</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>297259.08271</v>
+        <v>1605858.64404</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1779419.515</v>
+        <v>6237079.619700001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>839806.5074300001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2231282.89055</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4466283.237</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>502.01203</v>
+        <v>1658.37798</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>496.88789</v>
+        <v>1383.02692</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>405.2090699999999</v>
+        <v>777.96824</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>335.68101</v>
+        <v>642.45223</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>366.03798</v>
+        <v>712.81618</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>76.07170000000001</v>
+        <v>204.18169</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>125.22126</v>
+        <v>474.9801</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>336.8371</v>
+        <v>634.9657099999999</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>229.05837</v>
+        <v>1054.3278</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>608.17701</v>
+        <v>2290.40524</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1153.87094</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2622.68639</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>4464.226</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>1286.50765</v>
+        <v>2351.96296</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>1604.89646</v>
+        <v>2326.1556</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>1851.42207</v>
+        <v>2332.35905</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>695.7868599999998</v>
+        <v>1244.64544</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1309.81842</v>
+        <v>3260.63725</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>1372.55559</v>
+        <v>2366.167289999999</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>1775.67092</v>
+        <v>2935.22804</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>1821.24235</v>
+        <v>4539.75988</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>6175.68249</v>
+        <v>9917.470720000001</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>21559.60341</v>
+        <v>32289.1751</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>5542.98826</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>10546.80974</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>26499.977</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>59758.77936</v>
+        <v>133912.07414</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>64361.30302</v>
+        <v>135432.0395</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>67706.96661</v>
+        <v>157369.30219</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>63574.62005999999</v>
+        <v>393605.6258200001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>65023.10359999999</v>
+        <v>666117.9710700001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>48506.44083</v>
+        <v>197662.64511</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>54049.95258</v>
+        <v>264235.86366</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>64008.74586</v>
+        <v>321848.55665</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>65601.81109999999</v>
+        <v>318258.6483999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>161601.49599</v>
+        <v>475185.23376</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>167662.79051</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1079246.89344</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>579777.76</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>225446.61917</v>
+        <v>528046.89439</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>188658.24023</v>
+        <v>438247.8145</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>240909.61123</v>
+        <v>661683.54211</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>166992.40347</v>
+        <v>432255.95328</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>212492.2378</v>
+        <v>966878.7671200001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>200187.90074</v>
+        <v>881817.61954</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>271188.32865</v>
+        <v>1708910.3344</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>332162.54453</v>
+        <v>1927090.47504</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>372338.07913</v>
+        <v>2091101.67672</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2015562.65398</v>
+        <v>8155702.289770001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1087780.24253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2794068.68953</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5341565.757</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>17221.229</v>
+        <v>30950.92368</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>14605.40947</v>
+        <v>16177.42496</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>16216.91498</v>
+        <v>17538.35463</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>13404.73011</v>
+        <v>14613.23507</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>12433.81407</v>
+        <v>16456.23788</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>13647.79898</v>
+        <v>18261.31704</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>11534.23277</v>
+        <v>14645.48025</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>13203.11452</v>
+        <v>14872.31422</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>11473.71769</v>
+        <v>17593.80087</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>52497.27153</v>
+        <v>60257.17701000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>98518.05968000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>109124.5088</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>84818.70600000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>38830.70325</v>
+        <v>62474.03835</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>27344.99588</v>
+        <v>39620.91415999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>21796.64662</v>
+        <v>40827.9121</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>25149.69126</v>
+        <v>37935.05708999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>26257.85125</v>
+        <v>34497.20288</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>36104.10271</v>
+        <v>70178.86650999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>35902.79811</v>
+        <v>67728.60429999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>28972.05787</v>
+        <v>56296.31226</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>19262.1992</v>
+        <v>111120.02513</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>118143.25691</v>
+        <v>1032847.07355</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>119614.18149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>272961.87329</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>391878.294</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1081.86434</v>
+        <v>9253.7752</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1596.69583</v>
+        <v>5083.06307</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>10946.92452</v>
+        <v>17610.55733</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1811.00392</v>
+        <v>12389.0552</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>3188.10763</v>
+        <v>5004.23566</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1402.91271</v>
+        <v>44829.791</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1910.4387</v>
+        <v>23394.45473</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1467.72142</v>
+        <v>9922.500970000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1327.33003</v>
+        <v>11716.28135</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>6636.86312</v>
+        <v>30994.22335</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>4287.185640000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>20466.53805</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>34573.371</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>128552.96405</v>
+        <v>331186.90436</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>98119.31997</v>
+        <v>309630.42907</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>139834.15908</v>
+        <v>496465.70596</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>88398.04135</v>
+        <v>279436.55519</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>134042.7546</v>
+        <v>848285.2949600001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>117692.13687</v>
+        <v>695617.6758899998</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>196613.39469</v>
+        <v>1527573.15828</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>164526.34828</v>
+        <v>1671387.89941</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>306486.11551</v>
+        <v>1888102.17416</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1741631.73975</v>
+        <v>6829271.42131</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>783449.94025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2252318.50142</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4614650.924</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>704.92761</v>
+        <v>1084.77933</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>384.67124</v>
+        <v>1226.44155</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>423.00841</v>
+        <v>548.3450899999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>303.9389</v>
+        <v>1539.62214</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>309.07807</v>
+        <v>388.0857</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>222.59181</v>
+        <v>364.99663</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>109.45784</v>
+        <v>443.22321</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>210.91172</v>
+        <v>445.68799</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>110.7662</v>
+        <v>995.72534</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2126.26604</v>
+        <v>4151.75141</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2019.7556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>3091.30669</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>3874.358</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>2189.71675</v>
+        <v>2629.4411</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>1137.27897</v>
+        <v>1985.01037</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>1649.34089</v>
+        <v>3764.33224</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>586.47141</v>
+        <v>1325.87477</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>1134.42768</v>
+        <v>2196.63494</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>1313.63317</v>
+        <v>2158.43572</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>1315.78171</v>
+        <v>3055.25558</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>1221.89663</v>
+        <v>4427.387049999999</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>1805.54035</v>
+        <v>6026.19547</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>10535.04473</v>
+        <v>25213.28292</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>3937.22439</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>7873.81961</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>21696.158</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>36865.21417</v>
+        <v>90467.03236999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>45469.86887000001</v>
+        <v>64524.53131999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>50042.61673</v>
+        <v>84928.33476000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>37338.52652</v>
+        <v>85016.55382</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>35126.2045</v>
+        <v>60051.07509999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>29804.72449</v>
+        <v>50406.53675</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>23802.22483</v>
+        <v>72070.15805</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>122560.49409</v>
+        <v>169738.37314</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>31872.41015</v>
+        <v>55547.4744</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>83992.21190000001</v>
+        <v>172967.36022</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>75953.89548000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>128232.14167</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>190073.946</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>204454.92743</v>
+        <v>386522.26085</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>157449.83847</v>
+        <v>318618.98269</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>167873.4392</v>
+        <v>384153.8431699999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>183941.86694</v>
+        <v>381838.2450700001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>165103.23891</v>
+        <v>418699.5197000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>170098.03528</v>
+        <v>434027.492</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>164601.24811</v>
+        <v>475395.7736</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>164194.47238</v>
+        <v>570118.59637</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>149556.46198</v>
+        <v>788300.18186</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>805114.49922</v>
+        <v>2309200.50483</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>795440.62922</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1645835.75539</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1619577.362</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>194469.77234</v>
+        <v>321061.45954</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>146106.29856</v>
+        <v>264843.33895</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>159536.36275</v>
+        <v>340592.51079</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>175542.52341</v>
+        <v>347016.12251</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>155951.48048</v>
+        <v>373709.63601</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>157656.56393</v>
+        <v>362069.72992</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>159484.25829</v>
+        <v>393747.51894</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>158766.90697</v>
+        <v>492491.36392</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>144349.58821</v>
+        <v>745213.02269</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>775614.36861</v>
+        <v>2136545.06553</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>763895.3769500001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1568877.24089</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1550211.867</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>9985.15509</v>
+        <v>65460.80131</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>11343.53991</v>
+        <v>53775.64374</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>8337.07645</v>
+        <v>43561.33237999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>8399.34353</v>
+        <v>34822.12256</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>9151.75843</v>
+        <v>44989.88369</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>12441.47135</v>
+        <v>71957.76208</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5116.989820000001</v>
+        <v>81648.25465999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5427.56541</v>
+        <v>77627.23244999998</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>5206.873769999999</v>
+        <v>43087.15916999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>29500.13061</v>
+        <v>172655.4393</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>31545.25227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>76958.5145</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>69365.495</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>363460.06886</v>
+        <v>618357.81895</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>414558.77202</v>
+        <v>681243.84744</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>444810.7547</v>
+        <v>673887.2200000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>244927.13753</v>
+        <v>1213326.57366</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>187285.23334</v>
+        <v>851151.8096500001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>193171.79558</v>
+        <v>274707.6938100001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>192564.1652</v>
+        <v>239452.45193</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>7146.909870000005</v>
+        <v>-203477.10635</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>140392.86117</v>
+        <v>1097623.42384</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1740053.08282</v>
+        <v>1669784.8434</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1463084.8468</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2826715.82705</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1986900.408</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>115897.74374</v>
+        <v>256267.38964</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>106249.344</v>
+        <v>275490.73032</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>115666.17616</v>
+        <v>334081.57018</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>125532.19252</v>
+        <v>298124.28547</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>119384.58423</v>
+        <v>628572.7380599999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>132629.11045</v>
+        <v>380909.35343</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>123561.65329</v>
+        <v>579873.27772</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>125042.79478</v>
+        <v>557255.2203699999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>148706.8771</v>
+        <v>600701.28755</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>407413.06227</v>
+        <v>1010273.80443</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>498014.26913</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>951758.28448</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1259916.865</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2655.67663</v>
+        <v>7686.397530000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2521.01794</v>
+        <v>6010.22525</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>3292.27983</v>
+        <v>31833.8185</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2485.79382</v>
+        <v>4336.42895</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1926.42941</v>
+        <v>21111.83143</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2124.07657</v>
+        <v>3685.44066</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1341.32607</v>
+        <v>3362.35409</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1453.39961</v>
+        <v>38179.74157</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1531.85967</v>
+        <v>7700.68209</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>8828.660540000001</v>
+        <v>19396.00862</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6585.81934</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>18843.27496</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>17651.02</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>113242.06711</v>
+        <v>248580.99211</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>103728.32606</v>
+        <v>269480.50507</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>112373.89633</v>
+        <v>302247.75168</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>123046.3987</v>
+        <v>293787.85652</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>117458.15482</v>
+        <v>607460.9066300001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>130505.03388</v>
+        <v>377223.91277</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>122220.32722</v>
+        <v>576510.9236299999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>123589.39517</v>
+        <v>519075.4788</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>147175.01743</v>
+        <v>593000.6054599999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>398584.40173</v>
+        <v>990877.7958099999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>491428.44979</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>932915.00952</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1242265.845</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>146673.90548</v>
+        <v>256150.20208</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>181599.4133</v>
+        <v>384694.72559</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>878429.4500500001</v>
+        <v>1259144.34803</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>201329.5517</v>
+        <v>361846.72274</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>133636.53801</v>
+        <v>359229.2556</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>375804.06005</v>
+        <v>644248.54704</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>141826.21404</v>
+        <v>302717.76649</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>502683.33533</v>
+        <v>867789.23797</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>171867.03999</v>
+        <v>365788.97176</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>927492.8683399999</v>
+        <v>1503567.44713</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>437987.12541</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1002235.14928</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>986624.219</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2983.46337</v>
+        <v>14721.02177</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2993.81879</v>
+        <v>12468.86545</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>3307.6877</v>
+        <v>9787.98461</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>6910.05942</v>
+        <v>13734.18343</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>3458.8699</v>
+        <v>7391.38672</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2599.541369999999</v>
+        <v>11296.6745</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2728.02722</v>
+        <v>11845.02619</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2746.7114</v>
+        <v>9017.812190000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2098.27591</v>
+        <v>10713.44523</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>9228.3537</v>
+        <v>24691.23317</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>6594.94483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>20879.97225</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>29709.271</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>14432.12452</v>
+        <v>21325.64965</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>9737.11801</v>
+        <v>21561.14155</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>15171.91145</v>
+        <v>28330.00559</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>11804.37759</v>
+        <v>15979.54178</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>11109.42927</v>
+        <v>18472.26914</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>14599.00416</v>
+        <v>30377.70034</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11111.90024</v>
+        <v>18797.27037</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>11877.85676</v>
+        <v>48798.71779</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>19131.11954</v>
+        <v>29992.21892</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>21052.33864</v>
+        <v>30135.61789</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>17505.00527</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>38230.63327000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>56076.524</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>129258.31759</v>
+        <v>220103.53066</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>168868.4765</v>
+        <v>350664.7185899999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>859949.8509</v>
+        <v>1221026.35783</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>182615.11469</v>
+        <v>332132.99753</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>119068.23884</v>
+        <v>333365.59974</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>358605.51452</v>
+        <v>602574.1722</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>127986.28658</v>
+        <v>272075.46993</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>488058.76717</v>
+        <v>809972.70799</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>150637.64454</v>
+        <v>325083.30761</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>897212.176</v>
+        <v>1448740.59607</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>413887.17531</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>943124.54376</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>900838.424</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>332683.90712</v>
+        <v>618475.00651</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>339208.70272</v>
+        <v>572039.85217</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-317952.5191900001</v>
+        <v>-251175.55785</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>169129.77835</v>
+        <v>1149604.13639</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>173033.27956</v>
+        <v>1120495.29211</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-50003.15401999999</v>
+        <v>11368.50020000002</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>174299.60445</v>
+        <v>516607.96316</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-370493.63068</v>
+        <v>-514011.12395</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>117232.69828</v>
+        <v>1332535.73963</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1219973.27675</v>
+        <v>1176491.2007</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1523111.99052</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2776238.96225</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2260193.054</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>146484.44381</v>
+        <v>169524.74152</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>147904.92182</v>
+        <v>174910.45777</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>165942.21252</v>
+        <v>202084.91734</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>145747.45009</v>
+        <v>207863.75568</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>141319.94478</v>
+        <v>199137.75023</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>143028.9859</v>
+        <v>201068.50678</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>143619.21946</v>
+        <v>256960.95693</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>142944.59856</v>
+        <v>242821.88793</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>143881.46615</v>
+        <v>258725.45118</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>573547.04366</v>
+        <v>798003.6188099999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>570413.4161500001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>770365.75691</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>956450.299</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>186199.46331</v>
+        <v>448950.26499</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>191303.7809</v>
+        <v>397129.3944</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-483894.73171</v>
+        <v>-453260.4751900001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>23382.32826</v>
+        <v>941740.3807100001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>31713.33478</v>
+        <v>921357.54188</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-193032.13992</v>
+        <v>-189700.00658</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>30680.38499</v>
+        <v>259647.00623</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-513438.22924</v>
+        <v>-756833.0118800001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-26648.76787</v>
+        <v>1073810.28845</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>646426.2330899999</v>
+        <v>378487.58189</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>952698.5743700002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2005873.20534</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1303742.755</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>80683</v>
+        <v>86039</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>80064</v>
+        <v>86162</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>78391</v>
+        <v>84835</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>72854</v>
+        <v>80052</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>68635</v>
+        <v>77094</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>66070</v>
+        <v>75681</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>64183</v>
+        <v>75460</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>63791</v>
+        <v>76566</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>65606</v>
+        <v>78930</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>81447</v>
+        <v>105124</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>82385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>112449</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>118832</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>